--- a/biology/Médecine/Maladie_de_Charcot-Marie-Tooth_type_4/Maladie_de_Charcot-Marie-Tooth_type_4.xlsx
+++ b/biology/Médecine/Maladie_de_Charcot-Marie-Tooth_type_4/Maladie_de_Charcot-Marie-Tooth_type_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La maladie de Charcot-Marie-Tooth type 4 présente la triade classique des neuropathies de maladies de Charcot-Marie-Tooth : faiblesse musculaire des muscles distaux avec atrophie musculaire, une perte de la sensibilité et pieds creux.
@@ -514,9 +526,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tableau ci-dessous résument les différents sous-types, la fréquence, les gènes, les chromosomes et les protéines impliqués dans la CMT4[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau ci-dessous résument les différents sous-types, la fréquence, les gènes, les chromosomes et les protéines impliqués dans la CMT4.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Incidence et prévalence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prévalence des neuropathies héréditaires est estimée à 30 pour 100 000. La prévalence de la maladie de Charcot-Marie-Tooth type 4 est assez rare et limité à certaines populations, notamment tsiganes[2] ou méditerranéennes[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prévalence des neuropathies héréditaires est estimée à 30 pour 100 000. La prévalence de la maladie de Charcot-Marie-Tooth type 4 est assez rare et limité à certaines populations, notamment tsiganes ou méditerranéennes.
 </t>
         </is>
       </c>
@@ -577,6 +593,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,6 +621,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,6 +649,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -656,8 +678,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode de transmission
-Transmission autosomique récessive
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission autosomique récessive
 </t>
         </is>
       </c>
